--- a/RM_Capstone/depthLOCS.xlsx
+++ b/RM_Capstone/depthLOCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Github\NeuroKinematica\RM_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A3A2A-5636-4DC5-9525-6DB54BBFA6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7C9A4-2A6F-4FA6-B832-5D87F05AA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27270" yWindow="1830" windowWidth="19635" windowHeight="18255" xr2:uid="{E0C4765F-FC52-4B46-93A4-105286FADB38}"/>
+    <workbookView xWindow="17925" yWindow="495" windowWidth="20205" windowHeight="19905" xr2:uid="{E0C4765F-FC52-4B46-93A4-105286FADB38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
   <si>
     <t>subID</t>
   </si>
@@ -288,16 +288,37 @@
   </si>
   <si>
     <t>'SpCl_E1_RT1D1.927F0004.mat'</t>
+  </si>
+  <si>
+    <t>foldN</t>
+  </si>
+  <si>
+    <t>03_09_2023</t>
+  </si>
+  <si>
+    <t>05_11_2023</t>
+  </si>
+  <si>
+    <t>06_08_2023_L</t>
+  </si>
+  <si>
+    <t>06_08_2023_R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,943 +680,1101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35807279-0A97-4EB0-8147-A4E959BA826C}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
       <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
       <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>31</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
       <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
       <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
       <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>31</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>35</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
       <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
       <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
         <v>56</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
       <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
       <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
         <v>58</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
       <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
       <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
         <v>60</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
       <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
         <v>61</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
       <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
         <v>62</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
       <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
         <v>63</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>64</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>65</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
       <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
         <v>72</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
       <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
         <v>73</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
       <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
         <v>74</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>75</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>76</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>49</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>77</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>78</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>79</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
         <v>16</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>80</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>